--- a/medicine/Enfance/Christiane_Duchesne/Christiane_Duchesne.xlsx
+++ b/medicine/Enfance/Christiane_Duchesne/Christiane_Duchesne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christiane Duchesne est une écrivaine de littérature jeunesse, scénariste, illustratrice, traductrice et recherchiste québécoise née le 12 août 1949 à Montréal.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Christiane Duchesne a écrit une soixantaine de romans et de contes, ainsi que des textes pour le théâtre, la télévision, la radio et le cinéma.
 Elle fait partie du conseil d’administration du Salon du livre de Montréal.
-Le fonds d'archives de Christiane Duchesne est conservé au centre d'archives de Montréal de Bibliothèque et Archives nationales du Québec[1].
+Le fonds d'archives de Christiane Duchesne est conservé au centre d'archives de Montréal de Bibliothèque et Archives nationales du Québec.
 </t>
         </is>
       </c>
@@ -544,17 +558,19 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1981 - Prix littéraires Radio-Canada
-1990 - Prix du Gouverneur général, La Vraie histoire du chien de Clara Vic[2]
-1992 - (international) « Honour List »[3] de l' IBBY pour Bibitsa ou l’étrange voyage de Clara Vic
+1990 - Prix du Gouverneur général, La Vraie histoire du chien de Clara Vic
+1992 - (international) « Honour List » de l' IBBY pour Bibitsa ou l’étrange voyage de Clara Vic
 1991 - Prix Alvine-Bélisle, La Vraie histoire du chien de Clara Vic
 1991 - Prix Christie, Bibitsa ou l’étrange voyage de Clara Vic
-1992 - Prix du Gouverneur général, Victor[2]
+1992 - Prix du Gouverneur général, Victor
 1993 - Prix Christie, La 42e sœur de Bébert
 1995 - Nomination pour le Prix du Gouverneur général, Berthold et Lucrèce
-1995 - Prix Christie, La Bergère de chevaux[4]
+1995 - Prix Christie, La Bergère de chevaux
 1996 - Prix Québec/Wallonie-Bruxelles
 1997 - Prix «Coup de cœur des enfants» de la ville de Bruxelles
 2000 - Nomination pour le Prix du Gouverneur général, L'Homme des silences
@@ -562,9 +578,9 @@
 2000 - Prix Ringuet, L'homme des silences
 2001 - Prix du Gouverneur général, Jomusch et le troll des cuisines
 2001 - Prix France-Québec, L’Homme des silences
-2005 - Prix du livre jeunesse des bibliothèques de Montréal[5]
+2005 - Prix du livre jeunesse des bibliothèques de Montréal
 2010 - Prix Alvine-Bélisle, La vengeance d'Adeline Parot
-2014 - Finaliste au Prix littéraire des collégiens, Mensonges[6]</t>
+2014 - Finaliste au Prix littéraire des collégiens, Mensonges</t>
         </is>
       </c>
     </row>
